--- a/data/output_data4.xlsx
+++ b/data/output_data4.xlsx
@@ -79,7 +79,7 @@
     <t>Expected Utility: 5.472116134447312</t>
   </si>
   <si>
-    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
+    <t>(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.22096544749376096</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -87,11 +87,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.1881136373909225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.655813354059579</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.1881136373909225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 4.655813354059579</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -135,7 +135,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.32089054992253074</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.32089054992253074</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -151,7 +151,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.2911600999206335</t>
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: -0.2911600999206335</t>
   </si>
   <si>
     <t xml:space="preserve">
